--- a/blitz2/Stations2.xlsx
+++ b/blitz2/Stations2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\FRPreport2018\blitz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B695ACE7-513A-45B7-B8CA-B7E69934FE53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68E6F3-D3A9-46F2-AB2D-7916B87880CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="408">
   <si>
     <t>ID</t>
   </si>
@@ -1168,15 +1168,6 @@
     <t>Grizzly</t>
   </si>
   <si>
-    <t>Little Honker</t>
-  </si>
-  <si>
-    <t>Sherman Lake</t>
-  </si>
-  <si>
-    <t>Broad Slough</t>
-  </si>
-  <si>
     <t>Dow</t>
   </si>
   <si>
@@ -1211,6 +1202,51 @@
   </si>
   <si>
     <t>muted</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Browns</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>L Honker</t>
+  </si>
+  <si>
+    <t>Decker</t>
+  </si>
+  <si>
+    <t>Horseshoe</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Lookout</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Ryer</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>Winter</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I49" sqref="I43:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1670,7 @@
         <v>379</v>
       </c>
       <c r="L1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1663,13 +1699,13 @@
         <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -1677,10 +1713,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1689,25 +1725,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>38.176340000000003</v>
+        <v>38.180309999999999</v>
       </c>
       <c r="F3">
-        <v>121.90876</v>
+        <v>121.90877999999999</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -1715,37 +1751,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="E4">
-        <v>38.180309999999999</v>
+        <v>38.182479999999998</v>
       </c>
       <c r="F4">
-        <v>121.90877999999999</v>
+        <v>121.92171999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -1753,37 +1789,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>294</v>
       </c>
       <c r="E5">
-        <v>38.182479999999998</v>
+        <v>38.189863455199998</v>
       </c>
       <c r="F5">
-        <v>121.92171999999999</v>
+        <v>121.911645587</v>
       </c>
       <c r="G5" t="s">
         <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -1791,10 +1827,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1803,25 +1839,25 @@
         <v>294</v>
       </c>
       <c r="E6">
-        <v>38.189863455199998</v>
+        <v>38.183601250999999</v>
       </c>
       <c r="F6">
-        <v>121.911645587</v>
+        <v>121.907203365</v>
       </c>
       <c r="G6" t="s">
         <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -1829,10 +1865,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1841,25 +1877,25 @@
         <v>294</v>
       </c>
       <c r="E7">
-        <v>38.183601250999999</v>
+        <v>38.185098122900001</v>
       </c>
       <c r="F7">
-        <v>121.907203365</v>
+        <v>121.91743189899999</v>
       </c>
       <c r="G7" t="s">
         <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -1867,10 +1903,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1879,25 +1915,25 @@
         <v>294</v>
       </c>
       <c r="E8">
-        <v>38.185098122900001</v>
+        <v>38.196313761799999</v>
       </c>
       <c r="F8">
-        <v>121.91743189899999</v>
+        <v>121.919944761</v>
       </c>
       <c r="G8" t="s">
         <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -1905,10 +1941,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1917,25 +1953,25 @@
         <v>294</v>
       </c>
       <c r="E9">
-        <v>38.196313761799999</v>
+        <v>38.187983163799998</v>
       </c>
       <c r="F9">
-        <v>121.919944761</v>
+        <v>121.925822736</v>
       </c>
       <c r="G9" t="s">
         <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1943,151 +1979,151 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>38.187983163799998</v>
+        <v>38.0421895652999</v>
       </c>
       <c r="F10">
-        <v>121.925822736</v>
+        <v>121.844451666</v>
       </c>
       <c r="G10" t="s">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="J10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K10" t="s">
         <v>391</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="E11">
-        <v>38.0421895652999</v>
+        <v>38.190613920499999</v>
       </c>
       <c r="F11">
-        <v>121.844451666</v>
+        <v>121.920953436</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>38.190613920499999</v>
+        <v>38.040502708600002</v>
       </c>
       <c r="F12">
-        <v>121.920953436</v>
+        <v>121.867586321999</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="J12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13">
-        <v>38.040502708600002</v>
+        <v>38.038130159200001</v>
       </c>
       <c r="F13">
-        <v>121.867586321999</v>
+        <v>121.857789891</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -2095,10 +2131,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2107,25 +2143,25 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <v>38.038130159200001</v>
+        <v>38.039000000000001</v>
       </c>
       <c r="F14">
-        <v>121.857789891</v>
+        <v>121.85760999999999</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="J14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -2133,37 +2169,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15">
-        <v>38.039000000000001</v>
+        <v>38.044820000000001</v>
       </c>
       <c r="F15">
-        <v>121.85760999999999</v>
+        <v>121.87193000000001</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="J15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -2171,10 +2207,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2183,25 +2219,25 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>38.044820000000001</v>
+        <v>38.039264022399998</v>
       </c>
       <c r="F16">
-        <v>121.87193000000001</v>
+        <v>121.856129842</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="J16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -2209,75 +2245,75 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>38.039264022399998</v>
+        <v>38.286009999999997</v>
       </c>
       <c r="F17">
-        <v>121.856129842</v>
+        <v>121.72101000000001</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
       <c r="E18">
-        <v>38.286009999999997</v>
+        <v>38.277729917000002</v>
       </c>
       <c r="F18">
-        <v>121.72101000000001</v>
+        <v>121.710538580999</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L18" t="s">
         <v>48</v>
@@ -2285,10 +2321,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2297,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="E19">
-        <v>38.277729917000002</v>
+        <v>38.309820799999898</v>
       </c>
       <c r="F19">
-        <v>121.710538580999</v>
+        <v>121.692864857999</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
@@ -2323,10 +2359,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2335,25 +2371,25 @@
         <v>47</v>
       </c>
       <c r="E20">
-        <v>38.309820799999898</v>
+        <v>38.2784991394999</v>
       </c>
       <c r="F20">
-        <v>121.692864857999</v>
+        <v>121.693493258999</v>
       </c>
       <c r="G20" t="s">
         <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L20" t="s">
         <v>48</v>
@@ -2361,10 +2397,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2373,25 +2409,25 @@
         <v>47</v>
       </c>
       <c r="E21">
-        <v>38.2784991394999</v>
+        <v>38.245541000000003</v>
       </c>
       <c r="F21">
-        <v>121.693493258999</v>
+        <v>121.687681</v>
       </c>
       <c r="G21" t="s">
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L21" t="s">
         <v>48</v>
@@ -2399,10 +2435,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2411,25 +2447,25 @@
         <v>47</v>
       </c>
       <c r="E22">
-        <v>38.245541000000003</v>
+        <v>38.303673265699899</v>
       </c>
       <c r="F22">
-        <v>121.687681</v>
+        <v>121.73121774800001</v>
       </c>
       <c r="G22" t="s">
         <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>298</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L22" t="s">
         <v>48</v>
@@ -2437,48 +2473,48 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>38.303673265699899</v>
+        <v>38.083607883699898</v>
       </c>
       <c r="F23">
-        <v>121.73121774800001</v>
+        <v>121.723387024</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>397</v>
       </c>
       <c r="J23" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2487,36 +2523,36 @@
         <v>55</v>
       </c>
       <c r="E24">
-        <v>38.083607883699898</v>
+        <v>38.086257000000003</v>
       </c>
       <c r="F24">
-        <v>121.723387024</v>
+        <v>121.717422</v>
       </c>
       <c r="G24" t="s">
         <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="J24" t="s">
+        <v>389</v>
+      </c>
+      <c r="K24" t="s">
         <v>392</v>
       </c>
-      <c r="K24" t="s">
-        <v>395</v>
-      </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2525,92 +2561,86 @@
         <v>55</v>
       </c>
       <c r="E25">
-        <v>38.086257000000003</v>
+        <v>38.085538263499998</v>
       </c>
       <c r="F25">
-        <v>121.717422</v>
+        <v>121.72244385400001</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="J25" t="s">
+        <v>389</v>
+      </c>
+      <c r="K25" t="s">
         <v>392</v>
       </c>
-      <c r="K25" t="s">
-        <v>395</v>
-      </c>
       <c r="L25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>38.085538263499998</v>
+        <v>38.024821000000003</v>
       </c>
       <c r="F26">
-        <v>121.72244385400001</v>
+        <v>121.82608999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" t="s">
-        <v>392</v>
-      </c>
-      <c r="K26" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L26" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>38.024821000000003</v>
+        <v>38.023244211700003</v>
       </c>
       <c r="F27">
-        <v>121.82608999999999</v>
+        <v>121.833361911</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L27" t="s">
         <v>18</v>
@@ -2618,10 +2648,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2630,19 +2660,19 @@
         <v>65</v>
       </c>
       <c r="E28">
-        <v>38.023244211700003</v>
+        <v>38.021912985900002</v>
       </c>
       <c r="F28">
-        <v>121.833361911</v>
+        <v>121.825326158</v>
       </c>
       <c r="G28" t="s">
         <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -2650,10 +2680,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2662,19 +2692,19 @@
         <v>65</v>
       </c>
       <c r="E29">
-        <v>38.021912985900002</v>
+        <v>38.022789414199899</v>
       </c>
       <c r="F29">
-        <v>121.825326158</v>
+        <v>121.82943012</v>
       </c>
       <c r="G29" t="s">
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L29" t="s">
         <v>18</v>
@@ -2682,10 +2712,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2694,19 +2724,19 @@
         <v>65</v>
       </c>
       <c r="E30">
-        <v>38.022789414199899</v>
+        <v>38.021887564700002</v>
       </c>
       <c r="F30">
-        <v>121.82943012</v>
+        <v>121.833697065</v>
       </c>
       <c r="G30" t="s">
         <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -2714,10 +2744,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2726,19 +2756,19 @@
         <v>65</v>
       </c>
       <c r="E31">
-        <v>38.021887564700002</v>
+        <v>38.023757347299899</v>
       </c>
       <c r="F31">
-        <v>121.833697065</v>
+        <v>121.827256539999</v>
       </c>
       <c r="G31" t="s">
         <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
@@ -2746,60 +2776,60 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="E32">
-        <v>38.023757347299899</v>
+        <v>38.258920000000003</v>
       </c>
       <c r="F32">
-        <v>121.827256539999</v>
+        <v>121.49484</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>250</v>
       </c>
       <c r="E33">
-        <v>38.258920000000003</v>
+        <v>38.234859999999998</v>
       </c>
       <c r="F33">
-        <v>121.49484</v>
+        <v>121.48782</v>
       </c>
       <c r="G33" t="s">
         <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
         <v>251</v>
@@ -2810,69 +2840,72 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E34">
-        <v>38.234859999999998</v>
+        <v>38.364139999999999</v>
       </c>
       <c r="F34">
-        <v>121.48782</v>
+        <v>121.6444767</v>
       </c>
       <c r="G34" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" t="s">
+        <v>388</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>302</v>
       </c>
       <c r="E35">
-        <v>38.364139999999999</v>
+        <v>38.360751</v>
       </c>
       <c r="F35">
-        <v>121.6444767</v>
+        <v>121.642139</v>
       </c>
       <c r="G35" t="s">
         <v>303</v>
       </c>
-      <c r="H35" t="s">
-        <v>304</v>
-      </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L35" t="s">
         <v>48</v>
@@ -2880,10 +2913,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2892,22 +2925,22 @@
         <v>302</v>
       </c>
       <c r="E36">
-        <v>38.360751</v>
+        <v>38.360919000000003</v>
       </c>
       <c r="F36">
-        <v>121.642139</v>
+        <v>121.644335</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K36" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s">
         <v>48</v>
@@ -2915,10 +2948,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2927,22 +2960,22 @@
         <v>302</v>
       </c>
       <c r="E37">
-        <v>38.360919000000003</v>
+        <v>38.365788000000002</v>
       </c>
       <c r="F37">
-        <v>121.644335</v>
+        <v>121.643264</v>
       </c>
       <c r="G37" t="s">
         <v>303</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J37" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L37" t="s">
         <v>48</v>
@@ -2950,10 +2983,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2962,22 +2995,22 @@
         <v>302</v>
       </c>
       <c r="E38">
-        <v>38.365788000000002</v>
+        <v>38.370514100000001</v>
       </c>
       <c r="F38">
-        <v>121.643264</v>
+        <v>121.63593299999999</v>
       </c>
       <c r="G38" t="s">
         <v>303</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K38" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s">
         <v>48</v>
@@ -2985,34 +3018,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="E39">
-        <v>38.370514100000001</v>
+        <v>38.356349694499897</v>
       </c>
       <c r="F39">
-        <v>121.63593299999999</v>
+        <v>121.641887694999</v>
       </c>
       <c r="G39" t="s">
-        <v>303</v>
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
+        <v>216</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
         <v>48</v>
@@ -3020,48 +3056,48 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>38.356349694499897</v>
+        <v>38.121292167999897</v>
       </c>
       <c r="F40">
-        <v>121.641887694999</v>
+        <v>122.006722377</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="J40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K40" t="s">
         <v>391</v>
       </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3070,74 +3106,74 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>38.121292167999897</v>
+        <v>38.124130000000001</v>
       </c>
       <c r="F41">
-        <v>122.006722377</v>
+        <v>122.045013</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="I41" t="s">
         <v>380</v>
       </c>
       <c r="J41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>38.124130000000001</v>
+        <v>38.104042783499899</v>
       </c>
       <c r="F42">
-        <v>122.045013</v>
+        <v>121.710669018</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="J42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3146,36 +3182,36 @@
         <v>21</v>
       </c>
       <c r="E43">
-        <v>38.104042783499899</v>
+        <v>38.0987266104</v>
       </c>
       <c r="F43">
-        <v>121.710669018</v>
+        <v>121.709093912</v>
       </c>
       <c r="G43" t="s">
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3184,36 +3220,36 @@
         <v>21</v>
       </c>
       <c r="E44">
-        <v>38.0987266104</v>
+        <v>38.0968957897</v>
       </c>
       <c r="F44">
-        <v>121.709093912</v>
+        <v>121.709277224</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3222,112 +3258,112 @@
         <v>21</v>
       </c>
       <c r="E45">
-        <v>38.0968957897</v>
+        <v>38.089885063099899</v>
       </c>
       <c r="F45">
-        <v>121.709277224</v>
+        <v>121.709058494</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
       </c>
       <c r="E46">
-        <v>38.089885063099899</v>
+        <v>38.082940000000001</v>
       </c>
       <c r="F46">
-        <v>121.709058494</v>
+        <v>121.72507</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
       </c>
       <c r="E47">
-        <v>38.082940000000001</v>
+        <v>38.082587821799898</v>
       </c>
       <c r="F47">
-        <v>121.72507</v>
+        <v>121.72807763</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K47" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3336,36 +3372,36 @@
         <v>21</v>
       </c>
       <c r="E48">
-        <v>38.082587821799898</v>
+        <v>38.084034223899899</v>
       </c>
       <c r="F48">
-        <v>121.72807763</v>
+        <v>121.714689181</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3374,83 +3410,80 @@
         <v>21</v>
       </c>
       <c r="E49">
-        <v>38.084034223899899</v>
+        <v>38.099297278800002</v>
       </c>
       <c r="F49">
-        <v>121.714689181</v>
+        <v>121.707933725</v>
       </c>
       <c r="G49" t="s">
         <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J49" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>38.099297278800002</v>
+        <v>38.081829999999997</v>
       </c>
       <c r="F50">
-        <v>121.707933725</v>
+        <v>121.72399</v>
       </c>
       <c r="G50" t="s">
         <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>38.081829999999997</v>
+        <v>38.083069999999999</v>
       </c>
       <c r="F51">
-        <v>121.72399</v>
+        <v>121.72206</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
@@ -3459,68 +3492,68 @@
         <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>38.083069999999999</v>
+        <v>38.08558</v>
       </c>
       <c r="F52">
-        <v>121.72206</v>
+        <v>121.70901000000001</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J52" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>38.08558</v>
+        <v>38.08766</v>
       </c>
       <c r="F53">
-        <v>121.70901000000001</v>
+        <v>121.71127</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -3529,121 +3562,124 @@
         <v>169</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J53" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K53" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>38.08766</v>
+        <v>38.10013</v>
       </c>
       <c r="F54">
-        <v>121.71127</v>
+        <v>121.70862</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>38.10013</v>
+        <v>38.100540000000002</v>
       </c>
       <c r="F55">
-        <v>121.70862</v>
+        <v>121.70925</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>38.100540000000002</v>
+        <v>38.176340000000003</v>
       </c>
       <c r="F56">
-        <v>121.70925</v>
+        <v>121.90876</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>396</v>
       </c>
       <c r="J56" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K56" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3672,13 +3708,13 @@
         <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s">
         <v>48</v>
@@ -3710,13 +3746,13 @@
         <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J58" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K58" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L58" t="s">
         <v>48</v>
@@ -3745,13 +3781,13 @@
         <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J59" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s">
         <v>48</v>
@@ -3780,13 +3816,13 @@
         <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s">
         <v>48</v>
@@ -3815,13 +3851,13 @@
         <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s">
         <v>48</v>
@@ -3850,13 +3886,13 @@
         <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J62" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s">
         <v>48</v>
@@ -3885,13 +3921,13 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K63" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L63" t="s">
         <v>48</v>
@@ -3920,13 +3956,13 @@
         <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J64" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L64" t="s">
         <v>48</v>
@@ -3955,13 +3991,13 @@
         <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J65" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K65" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L65" t="s">
         <v>48</v>
@@ -3990,13 +4026,13 @@
         <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J66" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K66" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s">
         <v>48</v>
@@ -4025,13 +4061,13 @@
         <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J67" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K67" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L67" t="s">
         <v>48</v>
@@ -4060,13 +4096,13 @@
         <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J68" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K68" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L68" t="s">
         <v>48</v>
@@ -4089,13 +4125,13 @@
         <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s">
         <v>48</v>
@@ -4124,13 +4160,13 @@
         <v>113</v>
       </c>
       <c r="I70" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K70" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L70" t="s">
         <v>48</v>
@@ -4159,13 +4195,13 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J71" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K71" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L71" t="s">
         <v>48</v>
@@ -4191,13 +4227,13 @@
         <v>78</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J72" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K72" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L72" t="s">
         <v>48</v>
@@ -4226,13 +4262,13 @@
         <v>118</v>
       </c>
       <c r="I73" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J73" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K73" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L73" t="s">
         <v>48</v>
@@ -4261,13 +4297,13 @@
         <v>120</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J74" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K74" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L74" t="s">
         <v>48</v>
@@ -4296,13 +4332,13 @@
         <v>122</v>
       </c>
       <c r="I75" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J75" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K75" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L75" t="s">
         <v>48</v>
@@ -4331,13 +4367,13 @@
         <v>122</v>
       </c>
       <c r="I76" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J76" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K76" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L76" t="s">
         <v>48</v>
@@ -4366,13 +4402,13 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J77" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K77" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s">
         <v>48</v>
@@ -4401,13 +4437,13 @@
         <v>127</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J78" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K78" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L78" t="s">
         <v>48</v>
@@ -4436,13 +4472,13 @@
         <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J79" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K79" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L79" t="s">
         <v>48</v>
@@ -4474,13 +4510,13 @@
         <v>156</v>
       </c>
       <c r="I80" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K80" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L80" t="s">
         <v>48</v>
@@ -4512,13 +4548,13 @@
         <v>160</v>
       </c>
       <c r="I81" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J81" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K81" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L81" t="s">
         <v>48</v>
@@ -4550,13 +4586,13 @@
         <v>164</v>
       </c>
       <c r="I82" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J82" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K82" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L82" t="s">
         <v>48</v>
@@ -4588,13 +4624,13 @@
         <v>181</v>
       </c>
       <c r="I83" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J83" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K83" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L83" t="s">
         <v>48</v>
@@ -4626,13 +4662,13 @@
         <v>183</v>
       </c>
       <c r="I84" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J84" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K84" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L84" t="s">
         <v>48</v>
@@ -4661,13 +4697,13 @@
         <v>209</v>
       </c>
       <c r="I85" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J85" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K85" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L85" t="s">
         <v>48</v>
@@ -4696,13 +4732,13 @@
         <v>211</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L86" t="s">
         <v>48</v>
@@ -4734,13 +4770,13 @@
         <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J87" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K87" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L87" t="s">
         <v>48</v>
@@ -4769,13 +4805,13 @@
         <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J88" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K88" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L88" t="s">
         <v>48</v>
@@ -4807,13 +4843,13 @@
         <v>270</v>
       </c>
       <c r="I89" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J89" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K89" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L89" t="s">
         <v>48</v>
@@ -4845,13 +4881,13 @@
         <v>308</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J90" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K90" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s">
         <v>48</v>
@@ -4880,13 +4916,13 @@
         <v>108</v>
       </c>
       <c r="I91" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J91" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K91" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L91" t="s">
         <v>48</v>
@@ -4915,13 +4951,13 @@
         <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J92" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L92" t="s">
         <v>48</v>
@@ -4950,13 +4986,13 @@
         <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J93" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K93" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L93" t="s">
         <v>48</v>
@@ -4985,13 +5021,13 @@
         <v>108</v>
       </c>
       <c r="I94" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="J94" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K94" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L94" t="s">
         <v>48</v>
@@ -5023,13 +5059,13 @@
         <v>35</v>
       </c>
       <c r="I95" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J95" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K95" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L95" t="s">
         <v>48</v>
@@ -5061,13 +5097,13 @@
         <v>37</v>
       </c>
       <c r="I96" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J96" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K96" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L96" t="s">
         <v>48</v>
@@ -5099,13 +5135,13 @@
         <v>39</v>
       </c>
       <c r="I97" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J97" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K97" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L97" t="s">
         <v>48</v>
@@ -5137,13 +5173,13 @@
         <v>51</v>
       </c>
       <c r="I98" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J98" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K98" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L98" t="s">
         <v>48</v>
@@ -5175,13 +5211,13 @@
         <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J99" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K99" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L99" t="s">
         <v>48</v>
@@ -5213,13 +5249,13 @@
         <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J100" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K100" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L100" t="s">
         <v>48</v>
@@ -5251,13 +5287,13 @@
         <v>132</v>
       </c>
       <c r="I101" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J101" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K101" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L101" t="s">
         <v>48</v>
@@ -5286,13 +5322,13 @@
         <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J102" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K102" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L102" t="s">
         <v>48</v>
@@ -5324,13 +5360,13 @@
         <v>136</v>
       </c>
       <c r="I103" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J103" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K103" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L103" t="s">
         <v>48</v>
@@ -5362,13 +5398,13 @@
         <v>138</v>
       </c>
       <c r="I104" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J104" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K104" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L104" t="s">
         <v>48</v>
@@ -5397,13 +5433,13 @@
         <v>34</v>
       </c>
       <c r="I105" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="J105" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K105" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L105" t="s">
         <v>48</v>
@@ -5435,13 +5471,13 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="J106" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K106" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L106" t="s">
         <v>48</v>
@@ -5473,13 +5509,13 @@
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="J107" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K107" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L107" t="s">
         <v>48</v>
@@ -5511,13 +5547,13 @@
         <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="J108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L108" t="s">
         <v>14</v>
@@ -5549,13 +5585,13 @@
         <v>158</v>
       </c>
       <c r="I109" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="J109" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K109" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L109" t="s">
         <v>14</v>
@@ -5587,13 +5623,13 @@
         <v>367</v>
       </c>
       <c r="I110" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="J110" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L110" t="s">
         <v>48</v>
@@ -5625,13 +5661,13 @@
         <v>369</v>
       </c>
       <c r="I111" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="J111" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K111" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L111" t="s">
         <v>48</v>
@@ -5663,13 +5699,13 @@
         <v>371</v>
       </c>
       <c r="I112" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="J112" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K112" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L112" t="s">
         <v>48</v>
@@ -5701,13 +5737,13 @@
         <v>373</v>
       </c>
       <c r="I113" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="J113" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K113" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L113" t="s">
         <v>48</v>
@@ -5733,13 +5769,13 @@
         <v>366</v>
       </c>
       <c r="I114" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="J114" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K114" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L114" t="s">
         <v>48</v>
@@ -5771,13 +5807,13 @@
         <v>310</v>
       </c>
       <c r="I115" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J115" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K115" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L115" t="s">
         <v>48</v>
@@ -5809,13 +5845,13 @@
         <v>203</v>
       </c>
       <c r="I116" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J116" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K116" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L116" t="s">
         <v>48</v>
@@ -5847,13 +5883,13 @@
         <v>205</v>
       </c>
       <c r="I117" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J117" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K117" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L117" t="s">
         <v>48</v>
@@ -5885,13 +5921,13 @@
         <v>207</v>
       </c>
       <c r="I118" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J118" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K118" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L118" t="s">
         <v>48</v>
@@ -5923,13 +5959,13 @@
         <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J119" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K119" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L119" t="s">
         <v>48</v>
@@ -5961,13 +5997,13 @@
         <v>152</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J120" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K120" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L120" t="s">
         <v>48</v>
@@ -5999,13 +6035,13 @@
         <v>148</v>
       </c>
       <c r="I121" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J121" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K121" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L121" t="s">
         <v>48</v>
@@ -6037,13 +6073,13 @@
         <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J122" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K122" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L122" t="s">
         <v>48</v>
@@ -6072,13 +6108,13 @@
         <v>144</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J123" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K123" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L123" t="s">
         <v>48</v>
@@ -6107,13 +6143,13 @@
         <v>146</v>
       </c>
       <c r="I124" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J124" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K124" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L124" t="s">
         <v>48</v>
@@ -6145,13 +6181,13 @@
         <v>154</v>
       </c>
       <c r="I125" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J125" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K125" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L125" t="s">
         <v>48</v>
@@ -6183,13 +6219,13 @@
         <v>272</v>
       </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>402</v>
       </c>
       <c r="J126" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K126" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L126" t="s">
         <v>48</v>
@@ -6221,13 +6257,13 @@
         <v>162</v>
       </c>
       <c r="I127" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J127" t="s">
+        <v>389</v>
+      </c>
+      <c r="K127" t="s">
         <v>392</v>
-      </c>
-      <c r="K127" t="s">
-        <v>395</v>
       </c>
       <c r="L127" t="s">
         <v>48</v>
@@ -6256,13 +6292,13 @@
         <v>190</v>
       </c>
       <c r="I128" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J128" t="s">
+        <v>389</v>
+      </c>
+      <c r="K128" t="s">
         <v>392</v>
-      </c>
-      <c r="K128" t="s">
-        <v>395</v>
       </c>
       <c r="L128" t="s">
         <v>48</v>
@@ -6291,13 +6327,13 @@
         <v>190</v>
       </c>
       <c r="I129" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J129" t="s">
+        <v>389</v>
+      </c>
+      <c r="K129" t="s">
         <v>392</v>
-      </c>
-      <c r="K129" t="s">
-        <v>395</v>
       </c>
       <c r="L129" t="s">
         <v>48</v>
@@ -6323,13 +6359,13 @@
         <v>190</v>
       </c>
       <c r="I130" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J130" t="s">
+        <v>389</v>
+      </c>
+      <c r="K130" t="s">
         <v>392</v>
-      </c>
-      <c r="K130" t="s">
-        <v>395</v>
       </c>
       <c r="L130" t="s">
         <v>48</v>
@@ -6355,13 +6391,13 @@
         <v>190</v>
       </c>
       <c r="I131" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J131" t="s">
+        <v>389</v>
+      </c>
+      <c r="K131" t="s">
         <v>392</v>
-      </c>
-      <c r="K131" t="s">
-        <v>395</v>
       </c>
       <c r="L131" t="s">
         <v>48</v>
@@ -6390,13 +6426,13 @@
         <v>195</v>
       </c>
       <c r="I132" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J132" t="s">
+        <v>389</v>
+      </c>
+      <c r="K132" t="s">
         <v>392</v>
-      </c>
-      <c r="K132" t="s">
-        <v>395</v>
       </c>
       <c r="L132" t="s">
         <v>48</v>
@@ -6425,13 +6461,13 @@
         <v>197</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J133" t="s">
+        <v>389</v>
+      </c>
+      <c r="K133" t="s">
         <v>392</v>
-      </c>
-      <c r="K133" t="s">
-        <v>395</v>
       </c>
       <c r="L133" t="s">
         <v>48</v>
@@ -6460,13 +6496,13 @@
         <v>199</v>
       </c>
       <c r="I134" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J134" t="s">
+        <v>389</v>
+      </c>
+      <c r="K134" t="s">
         <v>392</v>
-      </c>
-      <c r="K134" t="s">
-        <v>395</v>
       </c>
       <c r="L134" t="s">
         <v>48</v>
@@ -6498,13 +6534,13 @@
         <v>344</v>
       </c>
       <c r="I135" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J135" t="s">
+        <v>389</v>
+      </c>
+      <c r="K135" t="s">
         <v>392</v>
-      </c>
-      <c r="K135" t="s">
-        <v>395</v>
       </c>
       <c r="L135" t="s">
         <v>48</v>
@@ -6536,13 +6572,13 @@
         <v>346</v>
       </c>
       <c r="I136" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J136" t="s">
+        <v>389</v>
+      </c>
+      <c r="K136" t="s">
         <v>392</v>
-      </c>
-      <c r="K136" t="s">
-        <v>395</v>
       </c>
       <c r="L136" t="s">
         <v>48</v>
@@ -6574,13 +6610,13 @@
         <v>348</v>
       </c>
       <c r="I137" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="J137" t="s">
+        <v>389</v>
+      </c>
+      <c r="K137" t="s">
         <v>392</v>
-      </c>
-      <c r="K137" t="s">
-        <v>395</v>
       </c>
       <c r="L137" t="s">
         <v>48</v>
@@ -6612,16 +6648,16 @@
         <v>283</v>
       </c>
       <c r="I138" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J138" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K138" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L138" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -6650,16 +6686,16 @@
         <v>334</v>
       </c>
       <c r="I139" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J139" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K139" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L139" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -6688,16 +6724,16 @@
         <v>336</v>
       </c>
       <c r="I140" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K140" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L140" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -6726,16 +6762,16 @@
         <v>338</v>
       </c>
       <c r="I141" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J141" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K141" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L141" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -6764,16 +6800,16 @@
         <v>340</v>
       </c>
       <c r="I142" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J142" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K142" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L142" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -6802,16 +6838,16 @@
         <v>342</v>
       </c>
       <c r="I143" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J143" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K143" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L143" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -6834,16 +6870,16 @@
         <v>176</v>
       </c>
       <c r="I144" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J144" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K144" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L144" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -6866,16 +6902,16 @@
         <v>176</v>
       </c>
       <c r="I145" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J145" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K145" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L145" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -6898,16 +6934,16 @@
         <v>176</v>
       </c>
       <c r="I146" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J146" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K146" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L146" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -6930,16 +6966,16 @@
         <v>176</v>
       </c>
       <c r="I147" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J147" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K147" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -6962,16 +6998,16 @@
         <v>176</v>
       </c>
       <c r="I148" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="J148" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K148" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -7000,13 +7036,13 @@
         <v>84</v>
       </c>
       <c r="J149" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K149" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L149" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -7038,13 +7074,13 @@
         <v>84</v>
       </c>
       <c r="J150" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K150" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L150" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -7076,13 +7112,13 @@
         <v>84</v>
       </c>
       <c r="J151" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K151" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L151" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -7114,13 +7150,13 @@
         <v>84</v>
       </c>
       <c r="J152" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K152" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L152" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -7152,13 +7188,13 @@
         <v>84</v>
       </c>
       <c r="J153" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K153" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L153" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -7190,13 +7226,13 @@
         <v>84</v>
       </c>
       <c r="J154" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K154" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L154" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -7228,13 +7264,13 @@
         <v>84</v>
       </c>
       <c r="J155" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K155" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L155" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -7266,13 +7302,13 @@
         <v>84</v>
       </c>
       <c r="J156" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K156" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L156" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -7304,13 +7340,13 @@
         <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K157" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L157" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -7339,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="I158" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="L158" t="s">
         <v>18</v>
@@ -7371,16 +7407,16 @@
         <v>261</v>
       </c>
       <c r="I159" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J159" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K159" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L159" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -7406,16 +7442,16 @@
         <v>234</v>
       </c>
       <c r="I160" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J160" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K160" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L160" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -7447,13 +7483,13 @@
         <v>219</v>
       </c>
       <c r="J161" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K161" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L161" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -7485,13 +7521,13 @@
         <v>219</v>
       </c>
       <c r="J162" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K162" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L162" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -7523,13 +7559,13 @@
         <v>219</v>
       </c>
       <c r="J163" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K163" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L163" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -7561,13 +7597,13 @@
         <v>219</v>
       </c>
       <c r="J164" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K164" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L164" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -7599,13 +7635,13 @@
         <v>219</v>
       </c>
       <c r="J165" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K165" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L165" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -7637,13 +7673,13 @@
         <v>219</v>
       </c>
       <c r="J166" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K166" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L166" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -7675,13 +7711,13 @@
         <v>219</v>
       </c>
       <c r="J167" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K167" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L167" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -7710,16 +7746,16 @@
         <v>265</v>
       </c>
       <c r="I168" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J168" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K168" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L168" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -7748,16 +7784,16 @@
         <v>278</v>
       </c>
       <c r="I169" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J169" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K169" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L169" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -7777,16 +7813,16 @@
         <v>264</v>
       </c>
       <c r="I170" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J170" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K170" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L170" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -7806,16 +7842,16 @@
         <v>264</v>
       </c>
       <c r="I171" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J171" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K171" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L171" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -7835,16 +7871,16 @@
         <v>264</v>
       </c>
       <c r="I172" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K172" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L172" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -7870,16 +7906,16 @@
         <v>264</v>
       </c>
       <c r="I173" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J173" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K173" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L173" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -7902,16 +7938,16 @@
         <v>359</v>
       </c>
       <c r="I174" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J174" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K174" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L174" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -7934,16 +7970,16 @@
         <v>361</v>
       </c>
       <c r="I175" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="J175" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K175" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L175" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -7972,13 +8008,13 @@
         <v>238</v>
       </c>
       <c r="I176" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J176" t="s">
+        <v>389</v>
+      </c>
+      <c r="K176" t="s">
         <v>392</v>
-      </c>
-      <c r="K176" t="s">
-        <v>395</v>
       </c>
       <c r="L176" t="s">
         <v>18</v>
@@ -8010,13 +8046,13 @@
         <v>240</v>
       </c>
       <c r="I177" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J177" t="s">
+        <v>389</v>
+      </c>
+      <c r="K177" t="s">
         <v>392</v>
-      </c>
-      <c r="K177" t="s">
-        <v>395</v>
       </c>
       <c r="L177" t="s">
         <v>18</v>
@@ -8048,13 +8084,13 @@
         <v>242</v>
       </c>
       <c r="I178" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J178" t="s">
+        <v>389</v>
+      </c>
+      <c r="K178" t="s">
         <v>392</v>
-      </c>
-      <c r="K178" t="s">
-        <v>395</v>
       </c>
       <c r="L178" t="s">
         <v>18</v>
@@ -8086,13 +8122,13 @@
         <v>244</v>
       </c>
       <c r="I179" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J179" t="s">
+        <v>389</v>
+      </c>
+      <c r="K179" t="s">
         <v>392</v>
-      </c>
-      <c r="K179" t="s">
-        <v>395</v>
       </c>
       <c r="L179" t="s">
         <v>18</v>
@@ -8121,13 +8157,13 @@
         <v>246</v>
       </c>
       <c r="I180" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J180" t="s">
+        <v>389</v>
+      </c>
+      <c r="K180" t="s">
         <v>392</v>
-      </c>
-      <c r="K180" t="s">
-        <v>395</v>
       </c>
       <c r="L180" t="s">
         <v>18</v>
@@ -8159,13 +8195,13 @@
         <v>248</v>
       </c>
       <c r="I181" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J181" t="s">
+        <v>389</v>
+      </c>
+      <c r="K181" t="s">
         <v>392</v>
-      </c>
-      <c r="K181" t="s">
-        <v>395</v>
       </c>
       <c r="L181" t="s">
         <v>18</v>
@@ -8197,13 +8233,13 @@
         <v>328</v>
       </c>
       <c r="I182" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J182" t="s">
+        <v>389</v>
+      </c>
+      <c r="K182" t="s">
         <v>392</v>
-      </c>
-      <c r="K182" t="s">
-        <v>395</v>
       </c>
       <c r="L182" t="s">
         <v>18</v>
@@ -8235,13 +8271,13 @@
         <v>330</v>
       </c>
       <c r="I183" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J183" t="s">
+        <v>389</v>
+      </c>
+      <c r="K183" t="s">
         <v>392</v>
-      </c>
-      <c r="K183" t="s">
-        <v>395</v>
       </c>
       <c r="L183" t="s">
         <v>18</v>
@@ -8273,13 +8309,13 @@
         <v>332</v>
       </c>
       <c r="I184" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J184" t="s">
+        <v>389</v>
+      </c>
+      <c r="K184" t="s">
         <v>392</v>
-      </c>
-      <c r="K184" t="s">
-        <v>395</v>
       </c>
       <c r="L184" t="s">
         <v>18</v>
@@ -8305,13 +8341,13 @@
         <v>350</v>
       </c>
       <c r="I185" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J185" t="s">
+        <v>389</v>
+      </c>
+      <c r="K185" t="s">
         <v>392</v>
-      </c>
-      <c r="K185" t="s">
-        <v>395</v>
       </c>
       <c r="L185" t="s">
         <v>18</v>
@@ -8337,13 +8373,13 @@
         <v>237</v>
       </c>
       <c r="I186" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J186" t="s">
+        <v>389</v>
+      </c>
+      <c r="K186" t="s">
         <v>392</v>
-      </c>
-      <c r="K186" t="s">
-        <v>395</v>
       </c>
       <c r="L186" t="s">
         <v>18</v>
@@ -8369,13 +8405,13 @@
         <v>376</v>
       </c>
       <c r="I187" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="J187" t="s">
+        <v>389</v>
+      </c>
+      <c r="K187" t="s">
         <v>392</v>
-      </c>
-      <c r="K187" t="s">
-        <v>395</v>
       </c>
       <c r="L187" t="s">
         <v>18</v>

--- a/blitz2/Stations2.xlsx
+++ b/blitz2/Stations2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\FRPreport2018\blitz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68E6F3-D3A9-46F2-AB2D-7916B87880CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F99F4C-78AA-4464-A58B-19A765D45DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="406">
   <si>
     <t>ID</t>
   </si>
@@ -1162,9 +1162,6 @@
     <t>sitetype</t>
   </si>
   <si>
-    <t>sitetype2</t>
-  </si>
-  <si>
     <t>Grizzly</t>
   </si>
   <si>
@@ -1190,9 +1187,6 @@
   </si>
   <si>
     <t>diked</t>
-  </si>
-  <si>
-    <t>wetland</t>
   </si>
   <si>
     <t>tidal</t>
@@ -1622,20 +1616,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="P182" sqref="P182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1667,13 +1661,10 @@
         <v>378</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>143</v>
       </c>
@@ -1699,19 +1690,16 @@
         <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>127</v>
       </c>
@@ -1740,16 +1728,13 @@
         <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K3" t="s">
-        <v>390</v>
-      </c>
-      <c r="L3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>145</v>
       </c>
@@ -1778,16 +1763,13 @@
         <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>153</v>
       </c>
@@ -1816,16 +1798,13 @@
         <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K5" t="s">
-        <v>388</v>
-      </c>
-      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>154</v>
       </c>
@@ -1854,16 +1833,13 @@
         <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K6" t="s">
-        <v>388</v>
-      </c>
-      <c r="L6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>155</v>
       </c>
@@ -1892,16 +1868,13 @@
         <v>293</v>
       </c>
       <c r="J7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>156</v>
       </c>
@@ -1930,16 +1903,13 @@
         <v>293</v>
       </c>
       <c r="J8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K8" t="s">
-        <v>388</v>
-      </c>
-      <c r="L8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>157</v>
       </c>
@@ -1968,16 +1938,13 @@
         <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K9" t="s">
-        <v>388</v>
-      </c>
-      <c r="L9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2003,19 +1970,16 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
-      </c>
-      <c r="L10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>159</v>
       </c>
@@ -2041,19 +2005,16 @@
         <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K11" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2079,19 +2040,16 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K12" t="s">
-        <v>390</v>
-      </c>
-      <c r="L12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2117,19 +2075,16 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K13" t="s">
-        <v>390</v>
-      </c>
-      <c r="L13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>138</v>
       </c>
@@ -2155,19 +2110,16 @@
         <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K14" t="s">
-        <v>390</v>
-      </c>
-      <c r="L14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>140</v>
       </c>
@@ -2193,19 +2145,16 @@
         <v>287</v>
       </c>
       <c r="I15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K15" t="s">
-        <v>390</v>
-      </c>
-      <c r="L15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>158</v>
       </c>
@@ -2231,19 +2180,16 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K16" t="s">
-        <v>390</v>
-      </c>
-      <c r="L16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2272,16 +2218,13 @@
         <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K17" t="s">
-        <v>391</v>
-      </c>
-      <c r="L17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2310,16 +2253,13 @@
         <v>297</v>
       </c>
       <c r="J18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K18" t="s">
-        <v>391</v>
-      </c>
-      <c r="L18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>88</v>
       </c>
@@ -2348,16 +2288,13 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K19" t="s">
-        <v>391</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>89</v>
       </c>
@@ -2386,16 +2323,13 @@
         <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K20" t="s">
-        <v>391</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>146</v>
       </c>
@@ -2424,16 +2358,13 @@
         <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
-      </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31</v>
       </c>
@@ -2462,16 +2393,13 @@
         <v>297</v>
       </c>
       <c r="J22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K22" t="s">
-        <v>391</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -2497,19 +2425,16 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K23" t="s">
-        <v>392</v>
-      </c>
-      <c r="L23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>147</v>
       </c>
@@ -2535,19 +2460,16 @@
         <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K24" t="s">
-        <v>392</v>
-      </c>
-      <c r="L24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>160</v>
       </c>
@@ -2573,19 +2495,16 @@
         <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K25" t="s">
-        <v>392</v>
-      </c>
-      <c r="L25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>142</v>
       </c>
@@ -2608,13 +2527,13 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>381</v>
-      </c>
-      <c r="L26" t="s">
+        <v>380</v>
+      </c>
+      <c r="K26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -2640,13 +2559,13 @@
         <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>381</v>
-      </c>
-      <c r="L27" t="s">
+        <v>380</v>
+      </c>
+      <c r="K27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -2672,13 +2591,13 @@
         <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>381</v>
-      </c>
-      <c r="L28" t="s">
+        <v>380</v>
+      </c>
+      <c r="K28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
@@ -2704,13 +2623,13 @@
         <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>381</v>
-      </c>
-      <c r="L29" t="s">
+        <v>380</v>
+      </c>
+      <c r="K29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2736,13 +2655,13 @@
         <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>381</v>
-      </c>
-      <c r="L30" t="s">
+        <v>380</v>
+      </c>
+      <c r="K30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
@@ -2768,13 +2687,13 @@
         <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>381</v>
-      </c>
-      <c r="L31" t="s">
+        <v>380</v>
+      </c>
+      <c r="K31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>119</v>
       </c>
@@ -2802,11 +2721,11 @@
       <c r="I32" t="s">
         <v>251</v>
       </c>
-      <c r="L32" t="s">
+      <c r="K32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -2834,11 +2753,11 @@
       <c r="I33" t="s">
         <v>251</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>148</v>
       </c>
@@ -2867,16 +2786,13 @@
         <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K34" t="s">
-        <v>388</v>
-      </c>
-      <c r="L34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>181</v>
       </c>
@@ -2902,16 +2818,13 @@
         <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K35" t="s">
-        <v>388</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>182</v>
       </c>
@@ -2937,16 +2850,13 @@
         <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K36" t="s">
-        <v>388</v>
-      </c>
-      <c r="L36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>185</v>
       </c>
@@ -2972,16 +2882,13 @@
         <v>301</v>
       </c>
       <c r="J37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K37" t="s">
-        <v>388</v>
-      </c>
-      <c r="L37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>186</v>
       </c>
@@ -3007,16 +2914,13 @@
         <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s">
-        <v>388</v>
-      </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>104</v>
       </c>
@@ -3045,16 +2949,13 @@
         <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>388</v>
-      </c>
-      <c r="L39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3080,19 +2981,16 @@
         <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K40" t="s">
-        <v>391</v>
-      </c>
-      <c r="L40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>149</v>
       </c>
@@ -3118,19 +3016,16 @@
         <v>306</v>
       </c>
       <c r="I41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>391</v>
-      </c>
-      <c r="L41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -3156,19 +3051,16 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K42" t="s">
-        <v>391</v>
-      </c>
-      <c r="L42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -3194,19 +3086,16 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
-      </c>
-      <c r="L43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -3232,19 +3121,16 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
-      </c>
-      <c r="L44" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3270,19 +3156,16 @@
         <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
-        <v>391</v>
-      </c>
-      <c r="L45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3308,19 +3191,16 @@
         <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s">
-        <v>391</v>
-      </c>
-      <c r="L46" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28</v>
       </c>
@@ -3346,19 +3226,16 @@
         <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
-      </c>
-      <c r="L47" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>29</v>
       </c>
@@ -3384,19 +3261,16 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K48" t="s">
-        <v>391</v>
-      </c>
-      <c r="L48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>30</v>
       </c>
@@ -3422,19 +3296,16 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s">
-        <v>391</v>
-      </c>
-      <c r="L49" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>76</v>
       </c>
@@ -3457,19 +3328,16 @@
         <v>166</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s">
-        <v>391</v>
-      </c>
-      <c r="L50" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>77</v>
       </c>
@@ -3492,19 +3360,16 @@
         <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
-      </c>
-      <c r="L51" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>78</v>
       </c>
@@ -3527,19 +3392,16 @@
         <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
-      </c>
-      <c r="L52" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>79</v>
       </c>
@@ -3562,19 +3424,16 @@
         <v>169</v>
       </c>
       <c r="I53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L53" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>80</v>
       </c>
@@ -3597,19 +3456,16 @@
         <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K54" t="s">
-        <v>391</v>
-      </c>
-      <c r="L54" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>81</v>
       </c>
@@ -3632,19 +3488,16 @@
         <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J55" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s">
-        <v>391</v>
-      </c>
-      <c r="L55" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>144</v>
       </c>
@@ -3670,19 +3523,16 @@
         <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J56" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K56" t="s">
-        <v>391</v>
-      </c>
-      <c r="L56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>25</v>
       </c>
@@ -3708,19 +3558,16 @@
         <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K57" t="s">
-        <v>390</v>
-      </c>
-      <c r="L57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3746,19 +3593,16 @@
         <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K58" t="s">
-        <v>390</v>
-      </c>
-      <c r="L58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>33</v>
       </c>
@@ -3781,19 +3625,16 @@
         <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K59" t="s">
-        <v>390</v>
-      </c>
-      <c r="L59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>34</v>
       </c>
@@ -3816,19 +3657,16 @@
         <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K60" t="s">
-        <v>390</v>
-      </c>
-      <c r="L60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>35</v>
       </c>
@@ -3851,19 +3689,16 @@
         <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s">
-        <v>390</v>
-      </c>
-      <c r="L61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>36</v>
       </c>
@@ -3886,19 +3721,16 @@
         <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K62" t="s">
-        <v>390</v>
-      </c>
-      <c r="L62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>37</v>
       </c>
@@ -3921,19 +3753,16 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K63" t="s">
-        <v>390</v>
-      </c>
-      <c r="L63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>38</v>
       </c>
@@ -3956,19 +3785,16 @@
         <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K64" t="s">
-        <v>390</v>
-      </c>
-      <c r="L64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>39</v>
       </c>
@@ -3991,19 +3817,16 @@
         <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K65" t="s">
-        <v>390</v>
-      </c>
-      <c r="L65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>40</v>
       </c>
@@ -4026,19 +3849,16 @@
         <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K66" t="s">
-        <v>390</v>
-      </c>
-      <c r="L66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>41</v>
       </c>
@@ -4061,19 +3881,16 @@
         <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K67" t="s">
-        <v>390</v>
-      </c>
-      <c r="L67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>42</v>
       </c>
@@ -4096,19 +3913,16 @@
         <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K68" t="s">
-        <v>390</v>
-      </c>
-      <c r="L68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>43</v>
       </c>
@@ -4125,19 +3939,16 @@
         <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K69" t="s">
-        <v>390</v>
-      </c>
-      <c r="L69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>48</v>
       </c>
@@ -4160,19 +3971,16 @@
         <v>113</v>
       </c>
       <c r="I70" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K70" t="s">
-        <v>390</v>
-      </c>
-      <c r="L70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>49</v>
       </c>
@@ -4195,19 +4003,16 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K71" t="s">
-        <v>390</v>
-      </c>
-      <c r="L71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>50</v>
       </c>
@@ -4227,19 +4032,16 @@
         <v>78</v>
       </c>
       <c r="I72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K72" t="s">
-        <v>390</v>
-      </c>
-      <c r="L72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>51</v>
       </c>
@@ -4262,19 +4064,16 @@
         <v>118</v>
       </c>
       <c r="I73" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K73" t="s">
-        <v>390</v>
-      </c>
-      <c r="L73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>52</v>
       </c>
@@ -4297,19 +4096,16 @@
         <v>120</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K74" t="s">
-        <v>390</v>
-      </c>
-      <c r="L74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>53</v>
       </c>
@@ -4332,19 +4128,16 @@
         <v>122</v>
       </c>
       <c r="I75" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K75" t="s">
-        <v>390</v>
-      </c>
-      <c r="L75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>54</v>
       </c>
@@ -4367,19 +4160,16 @@
         <v>122</v>
       </c>
       <c r="I76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K76" t="s">
-        <v>390</v>
-      </c>
-      <c r="L76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>55</v>
       </c>
@@ -4402,19 +4192,16 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K77" t="s">
-        <v>390</v>
-      </c>
-      <c r="L77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>56</v>
       </c>
@@ -4437,19 +4224,16 @@
         <v>127</v>
       </c>
       <c r="I78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K78" t="s">
-        <v>390</v>
-      </c>
-      <c r="L78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57</v>
       </c>
@@ -4472,19 +4256,16 @@
         <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K79" t="s">
-        <v>390</v>
-      </c>
-      <c r="L79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>71</v>
       </c>
@@ -4510,19 +4291,16 @@
         <v>156</v>
       </c>
       <c r="I80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K80" t="s">
-        <v>390</v>
-      </c>
-      <c r="L80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>73</v>
       </c>
@@ -4548,19 +4326,16 @@
         <v>160</v>
       </c>
       <c r="I81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K81" t="s">
-        <v>390</v>
-      </c>
-      <c r="L81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
@@ -4586,19 +4361,16 @@
         <v>164</v>
       </c>
       <c r="I82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K82" t="s">
-        <v>390</v>
-      </c>
-      <c r="L82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>86</v>
       </c>
@@ -4624,19 +4396,16 @@
         <v>181</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K83" t="s">
-        <v>390</v>
-      </c>
-      <c r="L83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>87</v>
       </c>
@@ -4662,19 +4431,16 @@
         <v>183</v>
       </c>
       <c r="I84" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K84" t="s">
-        <v>390</v>
-      </c>
-      <c r="L84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100</v>
       </c>
@@ -4697,19 +4463,16 @@
         <v>209</v>
       </c>
       <c r="I85" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K85" t="s">
-        <v>390</v>
-      </c>
-      <c r="L85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>101</v>
       </c>
@@ -4732,19 +4495,16 @@
         <v>211</v>
       </c>
       <c r="I86" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K86" t="s">
-        <v>390</v>
-      </c>
-      <c r="L86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>102</v>
       </c>
@@ -4770,19 +4530,16 @@
         <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K87" t="s">
-        <v>390</v>
-      </c>
-      <c r="L87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>103</v>
       </c>
@@ -4805,19 +4562,16 @@
         <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K88" t="s">
-        <v>390</v>
-      </c>
-      <c r="L88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>129</v>
       </c>
@@ -4843,19 +4597,16 @@
         <v>270</v>
       </c>
       <c r="I89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K89" t="s">
-        <v>390</v>
-      </c>
-      <c r="L89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>150</v>
       </c>
@@ -4881,19 +4632,16 @@
         <v>308</v>
       </c>
       <c r="I90" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K90" t="s">
-        <v>390</v>
-      </c>
-      <c r="L90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44</v>
       </c>
@@ -4916,19 +4664,16 @@
         <v>108</v>
       </c>
       <c r="I91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K91" t="s">
-        <v>390</v>
-      </c>
-      <c r="L91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45</v>
       </c>
@@ -4951,19 +4696,16 @@
         <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K92" t="s">
-        <v>390</v>
-      </c>
-      <c r="L92" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>46</v>
       </c>
@@ -4986,19 +4728,16 @@
         <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K93" t="s">
-        <v>390</v>
-      </c>
-      <c r="L93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>47</v>
       </c>
@@ -5021,19 +4760,16 @@
         <v>108</v>
       </c>
       <c r="I94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K94" t="s">
-        <v>390</v>
-      </c>
-      <c r="L94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -5059,19 +4795,16 @@
         <v>35</v>
       </c>
       <c r="I95" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K95" t="s">
-        <v>390</v>
-      </c>
-      <c r="L95" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -5097,19 +4830,16 @@
         <v>37</v>
       </c>
       <c r="I96" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K96" t="s">
-        <v>390</v>
-      </c>
-      <c r="L96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -5135,19 +4865,16 @@
         <v>39</v>
       </c>
       <c r="I97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K97" t="s">
-        <v>390</v>
-      </c>
-      <c r="L97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
@@ -5173,19 +4900,16 @@
         <v>51</v>
       </c>
       <c r="I98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K98" t="s">
-        <v>390</v>
-      </c>
-      <c r="L98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
@@ -5211,19 +4935,16 @@
         <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K99" t="s">
-        <v>390</v>
-      </c>
-      <c r="L99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58</v>
       </c>
@@ -5249,19 +4970,16 @@
         <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K100" t="s">
-        <v>390</v>
-      </c>
-      <c r="L100" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59</v>
       </c>
@@ -5287,19 +5005,16 @@
         <v>132</v>
       </c>
       <c r="I101" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K101" t="s">
-        <v>390</v>
-      </c>
-      <c r="L101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>60</v>
       </c>
@@ -5322,19 +5037,16 @@
         <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K102" t="s">
-        <v>390</v>
-      </c>
-      <c r="L102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>61</v>
       </c>
@@ -5360,19 +5072,16 @@
         <v>136</v>
       </c>
       <c r="I103" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K103" t="s">
-        <v>390</v>
-      </c>
-      <c r="L103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>62</v>
       </c>
@@ -5398,19 +5107,16 @@
         <v>138</v>
       </c>
       <c r="I104" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K104" t="s">
-        <v>390</v>
-      </c>
-      <c r="L104" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>128</v>
       </c>
@@ -5433,19 +5139,16 @@
         <v>34</v>
       </c>
       <c r="I105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K105" t="s">
-        <v>390</v>
-      </c>
-      <c r="L105" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>63</v>
       </c>
@@ -5471,19 +5174,16 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J106" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K106" t="s">
-        <v>391</v>
-      </c>
-      <c r="L106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>64</v>
       </c>
@@ -5509,19 +5209,16 @@
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J107" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K107" t="s">
-        <v>391</v>
-      </c>
-      <c r="L107" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -5547,19 +5244,16 @@
         <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K108" t="s">
-        <v>391</v>
-      </c>
-      <c r="L108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>72</v>
       </c>
@@ -5585,19 +5279,16 @@
         <v>158</v>
       </c>
       <c r="I109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J109" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K109" t="s">
-        <v>391</v>
-      </c>
-      <c r="L109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>187</v>
       </c>
@@ -5623,19 +5314,16 @@
         <v>367</v>
       </c>
       <c r="I110" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K110" t="s">
-        <v>388</v>
-      </c>
-      <c r="L110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>188</v>
       </c>
@@ -5661,19 +5349,16 @@
         <v>369</v>
       </c>
       <c r="I111" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J111" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K111" t="s">
-        <v>388</v>
-      </c>
-      <c r="L111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>189</v>
       </c>
@@ -5699,19 +5384,16 @@
         <v>371</v>
       </c>
       <c r="I112" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J112" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K112" t="s">
-        <v>388</v>
-      </c>
-      <c r="L112" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>190</v>
       </c>
@@ -5737,19 +5419,16 @@
         <v>373</v>
       </c>
       <c r="I113" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J113" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K113" t="s">
-        <v>388</v>
-      </c>
-      <c r="L113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>192</v>
       </c>
@@ -5769,19 +5448,16 @@
         <v>366</v>
       </c>
       <c r="I114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J114" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K114" t="s">
-        <v>388</v>
-      </c>
-      <c r="L114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>151</v>
       </c>
@@ -5807,19 +5483,16 @@
         <v>310</v>
       </c>
       <c r="I115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J115" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K115" t="s">
-        <v>390</v>
-      </c>
-      <c r="L115" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>97</v>
       </c>
@@ -5845,19 +5518,16 @@
         <v>203</v>
       </c>
       <c r="I116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K116" t="s">
-        <v>390</v>
-      </c>
-      <c r="L116" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>98</v>
       </c>
@@ -5883,19 +5553,16 @@
         <v>205</v>
       </c>
       <c r="I117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K117" t="s">
-        <v>390</v>
-      </c>
-      <c r="L117" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>99</v>
       </c>
@@ -5921,19 +5588,16 @@
         <v>207</v>
       </c>
       <c r="I118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K118" t="s">
-        <v>390</v>
-      </c>
-      <c r="L118" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>68</v>
       </c>
@@ -5959,19 +5623,16 @@
         <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J119" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K119" t="s">
-        <v>391</v>
-      </c>
-      <c r="L119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>69</v>
       </c>
@@ -5997,19 +5658,16 @@
         <v>152</v>
       </c>
       <c r="I120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K120" t="s">
-        <v>391</v>
-      </c>
-      <c r="L120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>67</v>
       </c>
@@ -6035,19 +5693,16 @@
         <v>148</v>
       </c>
       <c r="I121" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J121" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K121" t="s">
-        <v>391</v>
-      </c>
-      <c r="L121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -6073,19 +5728,16 @@
         <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J122" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K122" t="s">
-        <v>391</v>
-      </c>
-      <c r="L122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>65</v>
       </c>
@@ -6108,19 +5760,16 @@
         <v>144</v>
       </c>
       <c r="I123" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J123" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K123" t="s">
-        <v>391</v>
-      </c>
-      <c r="L123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>66</v>
       </c>
@@ -6143,19 +5792,16 @@
         <v>146</v>
       </c>
       <c r="I124" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K124" t="s">
-        <v>391</v>
-      </c>
-      <c r="L124" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>70</v>
       </c>
@@ -6181,19 +5827,16 @@
         <v>154</v>
       </c>
       <c r="I125" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J125" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K125" t="s">
-        <v>391</v>
-      </c>
-      <c r="L125" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>130</v>
       </c>
@@ -6219,19 +5862,16 @@
         <v>272</v>
       </c>
       <c r="I126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J126" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K126" t="s">
-        <v>391</v>
-      </c>
-      <c r="L126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>74</v>
       </c>
@@ -6257,19 +5897,16 @@
         <v>162</v>
       </c>
       <c r="I127" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K127" t="s">
-        <v>392</v>
-      </c>
-      <c r="L127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>90</v>
       </c>
@@ -6292,19 +5929,16 @@
         <v>190</v>
       </c>
       <c r="I128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K128" t="s">
-        <v>392</v>
-      </c>
-      <c r="L128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>91</v>
       </c>
@@ -6327,19 +5961,16 @@
         <v>190</v>
       </c>
       <c r="I129" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J129" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K129" t="s">
-        <v>392</v>
-      </c>
-      <c r="L129" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>92</v>
       </c>
@@ -6359,19 +5990,16 @@
         <v>190</v>
       </c>
       <c r="I130" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K130" t="s">
-        <v>392</v>
-      </c>
-      <c r="L130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>93</v>
       </c>
@@ -6391,19 +6019,16 @@
         <v>190</v>
       </c>
       <c r="I131" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J131" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K131" t="s">
-        <v>392</v>
-      </c>
-      <c r="L131" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>94</v>
       </c>
@@ -6426,19 +6051,16 @@
         <v>195</v>
       </c>
       <c r="I132" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K132" t="s">
-        <v>392</v>
-      </c>
-      <c r="L132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>95</v>
       </c>
@@ -6461,19 +6083,16 @@
         <v>197</v>
       </c>
       <c r="I133" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K133" t="s">
-        <v>392</v>
-      </c>
-      <c r="L133" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>96</v>
       </c>
@@ -6496,19 +6115,16 @@
         <v>199</v>
       </c>
       <c r="I134" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J134" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K134" t="s">
-        <v>392</v>
-      </c>
-      <c r="L134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>171</v>
       </c>
@@ -6534,19 +6150,16 @@
         <v>344</v>
       </c>
       <c r="I135" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J135" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K135" t="s">
-        <v>392</v>
-      </c>
-      <c r="L135" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>172</v>
       </c>
@@ -6572,19 +6185,16 @@
         <v>346</v>
       </c>
       <c r="I136" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J136" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K136" t="s">
-        <v>392</v>
-      </c>
-      <c r="L136" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>173</v>
       </c>
@@ -6610,19 +6220,16 @@
         <v>348</v>
       </c>
       <c r="I137" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J137" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K137" t="s">
-        <v>392</v>
-      </c>
-      <c r="L137" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6648,19 +6255,16 @@
         <v>283</v>
       </c>
       <c r="I138" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K138" t="s">
-        <v>390</v>
-      </c>
-      <c r="L138" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>164</v>
       </c>
@@ -6686,19 +6290,16 @@
         <v>334</v>
       </c>
       <c r="I139" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J139" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K139" t="s">
-        <v>390</v>
-      </c>
-      <c r="L139" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>165</v>
       </c>
@@ -6724,19 +6325,16 @@
         <v>336</v>
       </c>
       <c r="I140" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K140" t="s">
-        <v>390</v>
-      </c>
-      <c r="L140" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>166</v>
       </c>
@@ -6762,19 +6360,16 @@
         <v>338</v>
       </c>
       <c r="I141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K141" t="s">
-        <v>390</v>
-      </c>
-      <c r="L141" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>167</v>
       </c>
@@ -6800,19 +6395,16 @@
         <v>340</v>
       </c>
       <c r="I142" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J142" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K142" t="s">
-        <v>390</v>
-      </c>
-      <c r="L142" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>168</v>
       </c>
@@ -6838,19 +6430,16 @@
         <v>342</v>
       </c>
       <c r="I143" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J143" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K143" t="s">
-        <v>390</v>
-      </c>
-      <c r="L143" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>82</v>
       </c>
@@ -6870,19 +6459,16 @@
         <v>176</v>
       </c>
       <c r="I144" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K144" t="s">
-        <v>390</v>
-      </c>
-      <c r="L144" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>83</v>
       </c>
@@ -6902,19 +6488,16 @@
         <v>176</v>
       </c>
       <c r="I145" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J145" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K145" t="s">
-        <v>390</v>
-      </c>
-      <c r="L145" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>84</v>
       </c>
@@ -6934,19 +6517,16 @@
         <v>176</v>
       </c>
       <c r="I146" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K146" t="s">
-        <v>390</v>
-      </c>
-      <c r="L146" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>85</v>
       </c>
@@ -6966,19 +6546,16 @@
         <v>176</v>
       </c>
       <c r="I147" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K147" t="s">
-        <v>390</v>
-      </c>
-      <c r="L147" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>136</v>
       </c>
@@ -6998,19 +6575,16 @@
         <v>176</v>
       </c>
       <c r="I148" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K148" t="s">
-        <v>390</v>
-      </c>
-      <c r="L148" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>27</v>
       </c>
@@ -7036,16 +6610,13 @@
         <v>84</v>
       </c>
       <c r="J149" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K149" t="s">
-        <v>391</v>
-      </c>
-      <c r="L149" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>121</v>
       </c>
@@ -7074,16 +6645,13 @@
         <v>84</v>
       </c>
       <c r="J150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K150" t="s">
-        <v>391</v>
-      </c>
-      <c r="L150" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>122</v>
       </c>
@@ -7112,16 +6680,13 @@
         <v>84</v>
       </c>
       <c r="J151" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K151" t="s">
-        <v>391</v>
-      </c>
-      <c r="L151" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>123</v>
       </c>
@@ -7150,16 +6715,13 @@
         <v>84</v>
       </c>
       <c r="J152" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K152" t="s">
-        <v>391</v>
-      </c>
-      <c r="L152" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>124</v>
       </c>
@@ -7188,16 +6750,13 @@
         <v>84</v>
       </c>
       <c r="J153" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K153" t="s">
-        <v>391</v>
-      </c>
-      <c r="L153" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>131</v>
       </c>
@@ -7226,16 +6785,13 @@
         <v>84</v>
       </c>
       <c r="J154" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K154" t="s">
-        <v>391</v>
-      </c>
-      <c r="L154" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>132</v>
       </c>
@@ -7264,16 +6820,13 @@
         <v>84</v>
       </c>
       <c r="J155" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K155" t="s">
-        <v>391</v>
-      </c>
-      <c r="L155" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>133</v>
       </c>
@@ -7302,16 +6855,13 @@
         <v>84</v>
       </c>
       <c r="J156" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K156" t="s">
-        <v>391</v>
-      </c>
-      <c r="L156" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>134</v>
       </c>
@@ -7340,16 +6890,13 @@
         <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K157" t="s">
-        <v>391</v>
-      </c>
-      <c r="L157" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -7375,13 +6922,13 @@
         <v>19</v>
       </c>
       <c r="I158" t="s">
-        <v>405</v>
-      </c>
-      <c r="L158" t="s">
+        <v>403</v>
+      </c>
+      <c r="K158" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>125</v>
       </c>
@@ -7407,19 +6954,16 @@
         <v>261</v>
       </c>
       <c r="I159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K159" t="s">
-        <v>390</v>
-      </c>
-      <c r="L159" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>112</v>
       </c>
@@ -7442,19 +6986,16 @@
         <v>234</v>
       </c>
       <c r="I160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K160" t="s">
-        <v>390</v>
-      </c>
-      <c r="L160" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>105</v>
       </c>
@@ -7483,16 +7024,13 @@
         <v>219</v>
       </c>
       <c r="J161" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K161" t="s">
-        <v>388</v>
-      </c>
-      <c r="L161" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>106</v>
       </c>
@@ -7521,16 +7059,13 @@
         <v>219</v>
       </c>
       <c r="J162" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K162" t="s">
-        <v>388</v>
-      </c>
-      <c r="L162" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>107</v>
       </c>
@@ -7559,16 +7094,13 @@
         <v>219</v>
       </c>
       <c r="J163" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K163" t="s">
-        <v>388</v>
-      </c>
-      <c r="L163" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>108</v>
       </c>
@@ -7597,16 +7129,13 @@
         <v>219</v>
       </c>
       <c r="J164" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K164" t="s">
-        <v>388</v>
-      </c>
-      <c r="L164" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>109</v>
       </c>
@@ -7635,16 +7164,13 @@
         <v>219</v>
       </c>
       <c r="J165" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K165" t="s">
-        <v>388</v>
-      </c>
-      <c r="L165" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>110</v>
       </c>
@@ -7673,16 +7199,13 @@
         <v>219</v>
       </c>
       <c r="J166" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K166" t="s">
-        <v>388</v>
-      </c>
-      <c r="L166" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>111</v>
       </c>
@@ -7711,16 +7234,13 @@
         <v>219</v>
       </c>
       <c r="J167" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K167" t="s">
-        <v>388</v>
-      </c>
-      <c r="L167" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>126</v>
       </c>
@@ -7746,19 +7266,16 @@
         <v>265</v>
       </c>
       <c r="I168" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J168" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K168" t="s">
-        <v>388</v>
-      </c>
-      <c r="L168" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>135</v>
       </c>
@@ -7784,19 +7301,16 @@
         <v>278</v>
       </c>
       <c r="I169" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J169" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K169" t="s">
-        <v>388</v>
-      </c>
-      <c r="L169" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>175</v>
       </c>
@@ -7813,19 +7327,16 @@
         <v>264</v>
       </c>
       <c r="I170" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J170" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K170" t="s">
-        <v>388</v>
-      </c>
-      <c r="L170" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>176</v>
       </c>
@@ -7842,19 +7353,16 @@
         <v>264</v>
       </c>
       <c r="I171" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J171" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K171" t="s">
-        <v>388</v>
-      </c>
-      <c r="L171" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>178</v>
       </c>
@@ -7871,19 +7379,16 @@
         <v>264</v>
       </c>
       <c r="I172" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J172" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K172" t="s">
-        <v>388</v>
-      </c>
-      <c r="L172" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>179</v>
       </c>
@@ -7906,19 +7411,16 @@
         <v>264</v>
       </c>
       <c r="I173" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J173" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K173" t="s">
-        <v>388</v>
-      </c>
-      <c r="L173" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>183</v>
       </c>
@@ -7938,19 +7440,16 @@
         <v>359</v>
       </c>
       <c r="I174" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J174" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K174" t="s">
-        <v>388</v>
-      </c>
-      <c r="L174" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>184</v>
       </c>
@@ -7970,19 +7469,16 @@
         <v>361</v>
       </c>
       <c r="I175" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J175" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K175" t="s">
-        <v>388</v>
-      </c>
-      <c r="L175" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>113</v>
       </c>
@@ -8008,19 +7504,16 @@
         <v>238</v>
       </c>
       <c r="I176" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J176" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K176" t="s">
-        <v>392</v>
-      </c>
-      <c r="L176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>114</v>
       </c>
@@ -8046,19 +7539,16 @@
         <v>240</v>
       </c>
       <c r="I177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J177" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K177" t="s">
-        <v>392</v>
-      </c>
-      <c r="L177" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>115</v>
       </c>
@@ -8084,19 +7574,16 @@
         <v>242</v>
       </c>
       <c r="I178" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J178" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K178" t="s">
-        <v>392</v>
-      </c>
-      <c r="L178" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>116</v>
       </c>
@@ -8122,19 +7609,16 @@
         <v>244</v>
       </c>
       <c r="I179" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J179" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K179" t="s">
-        <v>392</v>
-      </c>
-      <c r="L179" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>117</v>
       </c>
@@ -8157,19 +7641,16 @@
         <v>246</v>
       </c>
       <c r="I180" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J180" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K180" t="s">
-        <v>392</v>
-      </c>
-      <c r="L180" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>118</v>
       </c>
@@ -8195,19 +7676,16 @@
         <v>248</v>
       </c>
       <c r="I181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K181" t="s">
-        <v>392</v>
-      </c>
-      <c r="L181" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>161</v>
       </c>
@@ -8233,19 +7711,16 @@
         <v>328</v>
       </c>
       <c r="I182" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J182" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K182" t="s">
-        <v>392</v>
-      </c>
-      <c r="L182" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>162</v>
       </c>
@@ -8271,19 +7746,16 @@
         <v>330</v>
       </c>
       <c r="I183" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J183" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K183" t="s">
-        <v>392</v>
-      </c>
-      <c r="L183" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>163</v>
       </c>
@@ -8309,19 +7781,16 @@
         <v>332</v>
       </c>
       <c r="I184" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J184" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K184" t="s">
-        <v>392</v>
-      </c>
-      <c r="L184" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>174</v>
       </c>
@@ -8341,19 +7810,16 @@
         <v>350</v>
       </c>
       <c r="I185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K185" t="s">
-        <v>392</v>
-      </c>
-      <c r="L185" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>180</v>
       </c>
@@ -8373,19 +7839,16 @@
         <v>237</v>
       </c>
       <c r="I186" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J186" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K186" t="s">
-        <v>392</v>
-      </c>
-      <c r="L186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>194</v>
       </c>
@@ -8405,20 +7868,17 @@
         <v>376</v>
       </c>
       <c r="I187" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J187" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K187" t="s">
-        <v>392</v>
-      </c>
-      <c r="L187" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L187">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K187">
     <sortCondition ref="I2:I187"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blitz2/Stations2.xlsx
+++ b/blitz2/Stations2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\FRPreport2018\blitz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F99F4C-78AA-4464-A58B-19A765D45DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33D78C8-3E99-492D-B169-2626442E405B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations2" sheetId="1" r:id="rId1"/>
@@ -1177,9 +1177,6 @@
     <t>Region2</t>
   </si>
   <si>
-    <t>San-San Joaquin</t>
-  </si>
-  <si>
     <t>Suisun Bay</t>
   </si>
   <si>
@@ -1241,6 +1238,9 @@
   </si>
   <si>
     <t>Winter</t>
+  </si>
+  <si>
+    <t>Sac-San Joaquin</t>
   </si>
 </sst>
 </file>
@@ -1618,18 +1618,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K13" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143</v>
       </c>
@@ -1690,16 +1690,16 @@
         <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>127</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>145</v>
       </c>
@@ -1763,13 +1763,13 @@
         <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>153</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>154</v>
       </c>
@@ -1833,13 +1833,13 @@
         <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>155</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>293</v>
       </c>
       <c r="J7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>156</v>
       </c>
@@ -1903,13 +1903,13 @@
         <v>293</v>
       </c>
       <c r="J8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>157</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1970,16 +1970,16 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>159</v>
       </c>
@@ -2005,16 +2005,16 @@
         <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2040,16 +2040,16 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2075,16 +2075,16 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>138</v>
       </c>
@@ -2110,16 +2110,16 @@
         <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>140</v>
       </c>
@@ -2145,16 +2145,16 @@
         <v>287</v>
       </c>
       <c r="I15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>158</v>
       </c>
@@ -2180,16 +2180,16 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2253,13 +2253,13 @@
         <v>297</v>
       </c>
       <c r="J18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>88</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>89</v>
       </c>
@@ -2323,13 +2323,13 @@
         <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>146</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31</v>
       </c>
@@ -2393,13 +2393,13 @@
         <v>297</v>
       </c>
       <c r="J22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
@@ -2425,16 +2425,16 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>147</v>
       </c>
@@ -2460,16 +2460,16 @@
         <v>300</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>160</v>
       </c>
@@ -2495,16 +2495,16 @@
         <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>142</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>21</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>22</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>24</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>119</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>120</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>148</v>
       </c>
@@ -2786,13 +2786,13 @@
         <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>181</v>
       </c>
@@ -2818,13 +2818,13 @@
         <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>182</v>
       </c>
@@ -2850,13 +2850,13 @@
         <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>185</v>
       </c>
@@ -2882,13 +2882,13 @@
         <v>301</v>
       </c>
       <c r="J37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>186</v>
       </c>
@@ -2914,13 +2914,13 @@
         <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>104</v>
       </c>
@@ -2949,13 +2949,13 @@
         <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2984,13 +2984,13 @@
         <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>149</v>
       </c>
@@ -3019,13 +3019,13 @@
         <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>17</v>
       </c>
@@ -3051,16 +3051,16 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -3086,16 +3086,16 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>19</v>
       </c>
@@ -3121,16 +3121,16 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3156,16 +3156,16 @@
         <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3191,16 +3191,16 @@
         <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>28</v>
       </c>
@@ -3226,16 +3226,16 @@
         <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>29</v>
       </c>
@@ -3261,16 +3261,16 @@
         <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>30</v>
       </c>
@@ -3296,16 +3296,16 @@
         <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>76</v>
       </c>
@@ -3328,16 +3328,16 @@
         <v>166</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>77</v>
       </c>
@@ -3360,16 +3360,16 @@
         <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>78</v>
       </c>
@@ -3392,16 +3392,16 @@
         <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>79</v>
       </c>
@@ -3424,16 +3424,16 @@
         <v>169</v>
       </c>
       <c r="I53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>80</v>
       </c>
@@ -3456,16 +3456,16 @@
         <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>81</v>
       </c>
@@ -3488,16 +3488,16 @@
         <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K55" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>144</v>
       </c>
@@ -3523,16 +3523,16 @@
         <v>292</v>
       </c>
       <c r="I56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>25</v>
       </c>
@@ -3558,16 +3558,16 @@
         <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3593,16 +3593,16 @@
         <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>33</v>
       </c>
@@ -3625,16 +3625,16 @@
         <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34</v>
       </c>
@@ -3657,16 +3657,16 @@
         <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>35</v>
       </c>
@@ -3689,16 +3689,16 @@
         <v>96</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>36</v>
       </c>
@@ -3721,16 +3721,16 @@
         <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>37</v>
       </c>
@@ -3753,16 +3753,16 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>38</v>
       </c>
@@ -3785,16 +3785,16 @@
         <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>39</v>
       </c>
@@ -3817,16 +3817,16 @@
         <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K65" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>40</v>
       </c>
@@ -3849,16 +3849,16 @@
         <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>41</v>
       </c>
@@ -3881,16 +3881,16 @@
         <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>42</v>
       </c>
@@ -3913,16 +3913,16 @@
         <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>43</v>
       </c>
@@ -3939,16 +3939,16 @@
         <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>48</v>
       </c>
@@ -3971,16 +3971,16 @@
         <v>113</v>
       </c>
       <c r="I70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>49</v>
       </c>
@@ -4003,16 +4003,16 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>50</v>
       </c>
@@ -4032,16 +4032,16 @@
         <v>78</v>
       </c>
       <c r="I72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -4064,16 +4064,16 @@
         <v>118</v>
       </c>
       <c r="I73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>52</v>
       </c>
@@ -4096,16 +4096,16 @@
         <v>120</v>
       </c>
       <c r="I74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K74" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>53</v>
       </c>
@@ -4128,16 +4128,16 @@
         <v>122</v>
       </c>
       <c r="I75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>54</v>
       </c>
@@ -4160,16 +4160,16 @@
         <v>122</v>
       </c>
       <c r="I76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>55</v>
       </c>
@@ -4192,16 +4192,16 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K77" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>56</v>
       </c>
@@ -4224,16 +4224,16 @@
         <v>127</v>
       </c>
       <c r="I78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K78" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>57</v>
       </c>
@@ -4256,16 +4256,16 @@
         <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K79" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>71</v>
       </c>
@@ -4291,16 +4291,16 @@
         <v>156</v>
       </c>
       <c r="I80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J80" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K80" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>73</v>
       </c>
@@ -4326,16 +4326,16 @@
         <v>160</v>
       </c>
       <c r="I81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K81" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>75</v>
       </c>
@@ -4361,16 +4361,16 @@
         <v>164</v>
       </c>
       <c r="I82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>86</v>
       </c>
@@ -4396,16 +4396,16 @@
         <v>181</v>
       </c>
       <c r="I83" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>87</v>
       </c>
@@ -4431,16 +4431,16 @@
         <v>183</v>
       </c>
       <c r="I84" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K84" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>100</v>
       </c>
@@ -4463,16 +4463,16 @@
         <v>209</v>
       </c>
       <c r="I85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K85" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>101</v>
       </c>
@@ -4495,16 +4495,16 @@
         <v>211</v>
       </c>
       <c r="I86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>102</v>
       </c>
@@ -4530,16 +4530,16 @@
         <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K87" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>103</v>
       </c>
@@ -4562,16 +4562,16 @@
         <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>129</v>
       </c>
@@ -4597,16 +4597,16 @@
         <v>270</v>
       </c>
       <c r="I89" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>150</v>
       </c>
@@ -4632,16 +4632,16 @@
         <v>308</v>
       </c>
       <c r="I90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>44</v>
       </c>
@@ -4664,16 +4664,16 @@
         <v>108</v>
       </c>
       <c r="I91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K91" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>45</v>
       </c>
@@ -4696,16 +4696,16 @@
         <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>46</v>
       </c>
@@ -4728,16 +4728,16 @@
         <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K93" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>47</v>
       </c>
@@ -4760,16 +4760,16 @@
         <v>108</v>
       </c>
       <c r="I94" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K94" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -4795,16 +4795,16 @@
         <v>35</v>
       </c>
       <c r="I95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K95" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9</v>
       </c>
@@ -4830,16 +4830,16 @@
         <v>37</v>
       </c>
       <c r="I96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -4865,16 +4865,16 @@
         <v>39</v>
       </c>
       <c r="I97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K97" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -4900,16 +4900,16 @@
         <v>51</v>
       </c>
       <c r="I98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J98" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K98" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>15</v>
       </c>
@@ -4935,16 +4935,16 @@
         <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>58</v>
       </c>
@@ -4970,16 +4970,16 @@
         <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>59</v>
       </c>
@@ -5005,16 +5005,16 @@
         <v>132</v>
       </c>
       <c r="I101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K101" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>60</v>
       </c>
@@ -5037,16 +5037,16 @@
         <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>61</v>
       </c>
@@ -5072,16 +5072,16 @@
         <v>136</v>
       </c>
       <c r="I103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J103" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K103" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>62</v>
       </c>
@@ -5107,16 +5107,16 @@
         <v>138</v>
       </c>
       <c r="I104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J104" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>128</v>
       </c>
@@ -5139,16 +5139,16 @@
         <v>34</v>
       </c>
       <c r="I105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K105" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>63</v>
       </c>
@@ -5174,16 +5174,16 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K106" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>64</v>
       </c>
@@ -5209,16 +5209,16 @@
         <v>142</v>
       </c>
       <c r="I107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K107" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -5244,16 +5244,16 @@
         <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>72</v>
       </c>
@@ -5279,16 +5279,16 @@
         <v>158</v>
       </c>
       <c r="I109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J109" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>187</v>
       </c>
@@ -5314,16 +5314,16 @@
         <v>367</v>
       </c>
       <c r="I110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K110" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>188</v>
       </c>
@@ -5349,16 +5349,16 @@
         <v>369</v>
       </c>
       <c r="I111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K111" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>189</v>
       </c>
@@ -5384,16 +5384,16 @@
         <v>371</v>
       </c>
       <c r="I112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K112" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>190</v>
       </c>
@@ -5419,16 +5419,16 @@
         <v>373</v>
       </c>
       <c r="I113" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J113" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K113" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>192</v>
       </c>
@@ -5448,16 +5448,16 @@
         <v>366</v>
       </c>
       <c r="I114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K114" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>151</v>
       </c>
@@ -5486,13 +5486,13 @@
         <v>381</v>
       </c>
       <c r="J115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K115" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>97</v>
       </c>
@@ -5521,13 +5521,13 @@
         <v>381</v>
       </c>
       <c r="J116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K116" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>98</v>
       </c>
@@ -5556,13 +5556,13 @@
         <v>381</v>
       </c>
       <c r="J117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K117" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>99</v>
       </c>
@@ -5591,13 +5591,13 @@
         <v>381</v>
       </c>
       <c r="J118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K118" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>68</v>
       </c>
@@ -5623,16 +5623,16 @@
         <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K119" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>69</v>
       </c>
@@ -5658,16 +5658,16 @@
         <v>152</v>
       </c>
       <c r="I120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K120" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>67</v>
       </c>
@@ -5693,16 +5693,16 @@
         <v>148</v>
       </c>
       <c r="I121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K121" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6</v>
       </c>
@@ -5728,16 +5728,16 @@
         <v>29</v>
       </c>
       <c r="I122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K122" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>65</v>
       </c>
@@ -5760,16 +5760,16 @@
         <v>144</v>
       </c>
       <c r="I123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J123" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K123" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>66</v>
       </c>
@@ -5792,16 +5792,16 @@
         <v>146</v>
       </c>
       <c r="I124" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K124" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>70</v>
       </c>
@@ -5827,16 +5827,16 @@
         <v>154</v>
       </c>
       <c r="I125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K125" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>130</v>
       </c>
@@ -5862,16 +5862,16 @@
         <v>272</v>
       </c>
       <c r="I126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K126" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>74</v>
       </c>
@@ -5897,16 +5897,16 @@
         <v>162</v>
       </c>
       <c r="I127" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>90</v>
       </c>
@@ -5929,16 +5929,16 @@
         <v>190</v>
       </c>
       <c r="I128" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K128" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>91</v>
       </c>
@@ -5961,16 +5961,16 @@
         <v>190</v>
       </c>
       <c r="I129" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J129" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>92</v>
       </c>
@@ -5990,16 +5990,16 @@
         <v>190</v>
       </c>
       <c r="I130" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>93</v>
       </c>
@@ -6019,16 +6019,16 @@
         <v>190</v>
       </c>
       <c r="I131" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K131" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>94</v>
       </c>
@@ -6051,16 +6051,16 @@
         <v>195</v>
       </c>
       <c r="I132" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>95</v>
       </c>
@@ -6083,16 +6083,16 @@
         <v>197</v>
       </c>
       <c r="I133" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>96</v>
       </c>
@@ -6115,16 +6115,16 @@
         <v>199</v>
       </c>
       <c r="I134" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>171</v>
       </c>
@@ -6150,16 +6150,16 @@
         <v>344</v>
       </c>
       <c r="I135" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>172</v>
       </c>
@@ -6185,16 +6185,16 @@
         <v>346</v>
       </c>
       <c r="I136" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>173</v>
       </c>
@@ -6220,16 +6220,16 @@
         <v>348</v>
       </c>
       <c r="I137" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6255,16 +6255,16 @@
         <v>283</v>
       </c>
       <c r="I138" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K138" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>164</v>
       </c>
@@ -6290,16 +6290,16 @@
         <v>334</v>
       </c>
       <c r="I139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J139" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K139" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>165</v>
       </c>
@@ -6325,16 +6325,16 @@
         <v>336</v>
       </c>
       <c r="I140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J140" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K140" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>166</v>
       </c>
@@ -6360,16 +6360,16 @@
         <v>338</v>
       </c>
       <c r="I141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J141" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K141" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>167</v>
       </c>
@@ -6395,16 +6395,16 @@
         <v>340</v>
       </c>
       <c r="I142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J142" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K142" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>168</v>
       </c>
@@ -6430,16 +6430,16 @@
         <v>342</v>
       </c>
       <c r="I143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J143" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K143" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>82</v>
       </c>
@@ -6459,16 +6459,16 @@
         <v>176</v>
       </c>
       <c r="I144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K144" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>83</v>
       </c>
@@ -6488,16 +6488,16 @@
         <v>176</v>
       </c>
       <c r="I145" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K145" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>84</v>
       </c>
@@ -6517,16 +6517,16 @@
         <v>176</v>
       </c>
       <c r="I146" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J146" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K146" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>85</v>
       </c>
@@ -6546,16 +6546,16 @@
         <v>176</v>
       </c>
       <c r="I147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K147" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>136</v>
       </c>
@@ -6575,16 +6575,16 @@
         <v>176</v>
       </c>
       <c r="I148" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J148" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K148" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>27</v>
       </c>
@@ -6610,13 +6610,13 @@
         <v>84</v>
       </c>
       <c r="J149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K149" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>121</v>
       </c>
@@ -6645,13 +6645,13 @@
         <v>84</v>
       </c>
       <c r="J150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K150" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>122</v>
       </c>
@@ -6680,13 +6680,13 @@
         <v>84</v>
       </c>
       <c r="J151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K151" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>123</v>
       </c>
@@ -6715,13 +6715,13 @@
         <v>84</v>
       </c>
       <c r="J152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K152" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>124</v>
       </c>
@@ -6750,13 +6750,13 @@
         <v>84</v>
       </c>
       <c r="J153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K153" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>131</v>
       </c>
@@ -6785,13 +6785,13 @@
         <v>84</v>
       </c>
       <c r="J154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K154" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>132</v>
       </c>
@@ -6820,13 +6820,13 @@
         <v>84</v>
       </c>
       <c r="J155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K155" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>133</v>
       </c>
@@ -6855,13 +6855,13 @@
         <v>84</v>
       </c>
       <c r="J156" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K156" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>134</v>
       </c>
@@ -6890,13 +6890,13 @@
         <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K157" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3</v>
       </c>
@@ -6922,13 +6922,13 @@
         <v>19</v>
       </c>
       <c r="I158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K158" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>125</v>
       </c>
@@ -6957,13 +6957,13 @@
         <v>382</v>
       </c>
       <c r="J159" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K159" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>112</v>
       </c>
@@ -6989,13 +6989,13 @@
         <v>382</v>
       </c>
       <c r="J160" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K160" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>105</v>
       </c>
@@ -7024,13 +7024,13 @@
         <v>219</v>
       </c>
       <c r="J161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K161" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>106</v>
       </c>
@@ -7059,13 +7059,13 @@
         <v>219</v>
       </c>
       <c r="J162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K162" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>107</v>
       </c>
@@ -7094,13 +7094,13 @@
         <v>219</v>
       </c>
       <c r="J163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K163" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>108</v>
       </c>
@@ -7129,13 +7129,13 @@
         <v>219</v>
       </c>
       <c r="J164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K164" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>109</v>
       </c>
@@ -7164,13 +7164,13 @@
         <v>219</v>
       </c>
       <c r="J165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K165" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>110</v>
       </c>
@@ -7199,13 +7199,13 @@
         <v>219</v>
       </c>
       <c r="J166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K166" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>111</v>
       </c>
@@ -7234,13 +7234,13 @@
         <v>219</v>
       </c>
       <c r="J167" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K167" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>126</v>
       </c>
@@ -7266,16 +7266,16 @@
         <v>265</v>
       </c>
       <c r="I168" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K168" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>135</v>
       </c>
@@ -7301,16 +7301,16 @@
         <v>278</v>
       </c>
       <c r="I169" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K169" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>175</v>
       </c>
@@ -7327,16 +7327,16 @@
         <v>264</v>
       </c>
       <c r="I170" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J170" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K170" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>176</v>
       </c>
@@ -7353,16 +7353,16 @@
         <v>264</v>
       </c>
       <c r="I171" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K171" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>178</v>
       </c>
@@ -7379,16 +7379,16 @@
         <v>264</v>
       </c>
       <c r="I172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J172" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K172" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>179</v>
       </c>
@@ -7411,16 +7411,16 @@
         <v>264</v>
       </c>
       <c r="I173" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J173" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K173" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>183</v>
       </c>
@@ -7440,16 +7440,16 @@
         <v>359</v>
       </c>
       <c r="I174" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K174" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>184</v>
       </c>
@@ -7469,16 +7469,16 @@
         <v>361</v>
       </c>
       <c r="I175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J175" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K175" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>113</v>
       </c>
@@ -7504,16 +7504,16 @@
         <v>238</v>
       </c>
       <c r="I176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>114</v>
       </c>
@@ -7539,16 +7539,16 @@
         <v>240</v>
       </c>
       <c r="I177" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J177" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K177" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>115</v>
       </c>
@@ -7574,16 +7574,16 @@
         <v>242</v>
       </c>
       <c r="I178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K178" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>116</v>
       </c>
@@ -7609,16 +7609,16 @@
         <v>244</v>
       </c>
       <c r="I179" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J179" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K179" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>117</v>
       </c>
@@ -7641,16 +7641,16 @@
         <v>246</v>
       </c>
       <c r="I180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K180" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>118</v>
       </c>
@@ -7676,16 +7676,16 @@
         <v>248</v>
       </c>
       <c r="I181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J181" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K181" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>161</v>
       </c>
@@ -7711,16 +7711,16 @@
         <v>328</v>
       </c>
       <c r="I182" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J182" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K182" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>162</v>
       </c>
@@ -7746,16 +7746,16 @@
         <v>330</v>
       </c>
       <c r="I183" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J183" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K183" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>163</v>
       </c>
@@ -7781,16 +7781,16 @@
         <v>332</v>
       </c>
       <c r="I184" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K184" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>174</v>
       </c>
@@ -7810,16 +7810,16 @@
         <v>350</v>
       </c>
       <c r="I185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K185" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>180</v>
       </c>
@@ -7839,16 +7839,16 @@
         <v>237</v>
       </c>
       <c r="I186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>194</v>
       </c>
@@ -7868,10 +7868,10 @@
         <v>376</v>
       </c>
       <c r="I187" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J187" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K187" t="s">
         <v>18</v>
